--- a/uploads/TEST.xlsx
+++ b/uploads/TEST.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="79">
   <si>
     <t xml:space="preserve">Submission Date</t>
   </si>
@@ -257,174 +257,6 @@
   </si>
   <si>
     <t xml:space="preserve">2004:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">429 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">430 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">431 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">433 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">434 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">435 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011:fd8:501:7af6:4c6c:db08:77e5:991e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar 25, 2036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00000000011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jan 27, 2034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">436 MLQ Street Lower Bicutan Taguig City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sep 20, 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012:fd8:501:7af6:4c6c:db08:77e5:991e</t>
   </si>
 </sst>
 </file>
@@ -661,15 +493,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="1" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="92.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="4" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="40.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="36.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="32" style="1" width="25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +630,7 @@
         <v>37</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>38</v>
@@ -882,7 +719,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>2</v>
+        <v>100002</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>38</v>
@@ -971,7 +808,7 @@
         <v>37</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>3</v>
+        <v>100003</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>38</v>
@@ -1060,7 +897,7 @@
         <v>37</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>4</v>
+        <v>100004</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>38</v>
@@ -1127,716 +964,874 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1844,14 +1839,6 @@
     <hyperlink ref="C3" r:id="rId2" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
     <hyperlink ref="C4" r:id="rId3" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
     <hyperlink ref="C5" r:id="rId4" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C8" r:id="rId7" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C9" r:id="rId8" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C10" r:id="rId9" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C11" r:id="rId10" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C12" r:id="rId11" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
-    <hyperlink ref="C13" r:id="rId12" display="https://www.jotform.com/uploads/eddrind17/250488282878473/6186942901998432540/IMG_4509.png"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
